--- a/Rebalancing.xlsx
+++ b/Rebalancing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\portfolio_rebalancer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAECC55-4A18-401A-9B7E-B9A8C5A1225F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42280946-4B2C-4A74-A38B-485D8E0207AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>iShares MSCI EM ETF USD Dist GBP (LSE:IEEM)</t>
   </si>
@@ -97,6 +97,15 @@
   </si>
   <si>
     <t>Investment</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>User Input</t>
+  </si>
+  <si>
+    <t>Key</t>
   </si>
 </sst>
 </file>
@@ -122,7 +131,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,6 +150,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -155,7 +170,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -166,6 +181,10 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K1" sqref="K1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -519,15 +538,25 @@
     <col min="6" max="6" width="12.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="11"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="4">
         <v>9000</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K2" s="10"/>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
@@ -535,8 +564,12 @@
         <f>B2/7</f>
         <v>1285.7142857142858</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K3" s="8"/>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -565,7 +598,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -597,7 +630,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -629,7 +662,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -661,7 +694,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -693,7 +726,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -725,7 +758,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -757,7 +790,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -789,7 +822,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D12" s="1">
         <f>SUM(D5:D11)</f>
         <v>8723.75</v>
@@ -807,7 +840,7 @@
         <v>9065</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>17</v>
       </c>
@@ -816,7 +849,7 @@
         <v>276.25</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
@@ -826,6 +859,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K1:L1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/Rebalancing.xlsx
+++ b/Rebalancing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\portfolio_rebalancer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42280946-4B2C-4A74-A38B-485D8E0207AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7CA83D-D626-4329-9B9A-D8B173A267EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -528,7 +528,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L1"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -619,8 +619,8 @@
         <v>1360</v>
       </c>
       <c r="G5" s="6">
-        <f>E5/B5-1</f>
-        <v>0.17647058823529416</v>
+        <f>E5/C5-1</f>
+        <v>9.0438219859606095E-2</v>
       </c>
       <c r="H5" s="5">
         <f>F5-I5</f>
